--- a/Control de conocimiento.xlsx
+++ b/Control de conocimiento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet-my.sharepoint.com/personal/x707728_santanderglobaltech_com/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{ABB3C135-DD73-4501-B030-B504E945DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8078BC4-8795-4CAD-917E-4EA26817BCCE}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{ABB3C135-DD73-4501-B030-B504E945DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95ADC001-71E3-4A43-B1E3-9EA49B68537A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>Tarea/Actividad/Conocimiento</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Formado</t>
   </si>
   <si>
-    <t>Si/No</t>
-  </si>
-  <si>
     <t>Aprendido</t>
   </si>
   <si>
@@ -127,13 +124,28 @@
   </si>
   <si>
     <t>Lo pendiente de la semana 4</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -182,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -276,11 +299,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -303,6 +344,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,10 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,46 +684,46 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
@@ -684,95 +733,109 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
@@ -786,15 +849,35 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="2"/>
@@ -808,15 +891,35 @@
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2"/>
@@ -830,15 +933,35 @@
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="2"/>
@@ -852,15 +975,35 @@
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="2"/>
@@ -874,15 +1017,35 @@
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
@@ -896,15 +1059,35 @@
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="2"/>
@@ -918,15 +1101,35 @@
     </row>
     <row r="11" spans="2:28" ht="29" x14ac:dyDescent="0.35">
       <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
@@ -940,15 +1143,35 @@
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="2"/>
@@ -962,15 +1185,35 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="2"/>
@@ -984,14 +1227,20 @@
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -1009,11 +1258,17 @@
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -1031,11 +1286,17 @@
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -1053,7 +1314,7 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1075,10 +1336,10 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
@@ -1100,7 +1361,7 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -1122,7 +1383,7 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
@@ -1144,61 +1405,46 @@
     </row>
     <row r="21" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="16"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="16"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="16"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="16"/>
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
